--- a/results/I3_N5_M2_T45_C200_DepCentral_s2_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.0990839228476</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.42908392284503</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.110038862201358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.110038862201358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.67000000000257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,39 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -901,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>32.99312545677591</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.99312545677591</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.49313212343961</v>
+        <v>31.95858503259002</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35.45653196483993</v>
+        <v>35.47531646959229</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.00986356044187</v>
+        <v>37.82130316684417</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,48 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>43.65499999999985</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1129,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>37.03499999999985</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1140,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>41.29499999999985</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>39.50999999999986</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>43.86999999999986</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1173,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>154.9200000000004</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -1184,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>152.65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.9800000000004</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -1206,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>156.3850000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.7900000000004</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1228,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>41.16999999999935</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -1239,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.71499999999934</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37.85999999999935</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -1261,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>47.65</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -1272,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>45.31999999999935</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -1283,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3399999999997</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1294,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>159.2049999999997</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1305,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4299999999997</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1316,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9949999999997</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1338,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>199.5750000000004</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
@@ -1349,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>203.5550000000004</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
@@ -1360,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>184.9550000000004</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>203.4850000000004</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31">
@@ -1382,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>203.7950000000004</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32">
@@ -1393,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.9200000000004</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>152.65</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
@@ -1415,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>157.9800000000004</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.3850000000004</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
@@ -1437,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>159.7900000000004</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
@@ -1448,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>199.5750000000004</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -1459,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.5550000000004</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -1470,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>184.9550000000004</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -1481,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>203.4850000000004</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -1492,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.7950000000004</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.555000000000437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1627,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.485000000000419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1638,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.795000000000428</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,39 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
